--- a/downloaded_files/GENS005_Lecture-35030.xlsx
+++ b/downloaded_files/GENS005_Lecture-35030.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -418,15 +418,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ahmed ElAzab Abdo Dagher</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230327</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف صفوت وهبه زكرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Safwat Wahba Zekry</x:t>
   </x:si>
   <x:si>
     <x:t>1240400</x:t>
@@ -557,7 +548,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +848,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2324,7 +2315,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6668789005</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2352,11 +2343,9 @@
       <x:c r="C46" s="2" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
+      <x:c r="D46" s="2" t="s"/>
       <x:c r="E46" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45907.6661684375</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2373,36 +2362,6 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s"/>
-      <x:c r="E47" s="3">
-        <x:v>45907.6661684375</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS005_Lecture-35030.xlsx
+++ b/downloaded_files/GENS005_Lecture-35030.xlsx
@@ -42,15 +42,6 @@
     <x:t>Adam Abdelalim Ahmed Ismaiel</x:t>
   </x:si>
   <x:si>
-    <x:t>1240012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد احمد عبدالحميد ابراهيم المسيري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Ahmed Abd Elhamid</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240286</x:t>
   </x:si>
   <x:si>
@@ -274,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Omar ahmed abdelmaaboud mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام ابوطالب عبدالقوي النجار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam Abotaleb Elnaggar</x:t>
   </x:si>
   <x:si>
     <x:t>1240341</x:t>
@@ -856,7 +856,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="33.230624999999996" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.250625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.380625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -971,7 +971,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6655820602</x:v>
+        <x:v>45907.6658420486</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1003,7 +1003,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6658420486</x:v>
+        <x:v>45915.6153365394</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1035,7 +1035,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45915.6153365394</x:v>
+        <x:v>45907.6657842245</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1067,7 +1067,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6657842245</x:v>
+        <x:v>45915.6200672106</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1099,7 +1099,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.6200672106</x:v>
+        <x:v>45907.6717198264</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1131,7 +1131,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6717198264</x:v>
+        <x:v>45907.6650951042</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1163,7 +1163,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6650951042</x:v>
+        <x:v>45915.6169615394</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1195,7 +1195,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.6169615394</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1227,7 +1227,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45915.615916088</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1259,7 +1259,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.615916088</x:v>
+        <x:v>45907.6674490741</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1291,7 +1291,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6674490741</x:v>
+        <x:v>45907.6651674769</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1323,7 +1323,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6651674769</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1355,7 +1355,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45915.6150180208</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1387,7 +1387,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.6150180208</x:v>
+        <x:v>45915.6149380787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1419,7 +1419,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.6149380787</x:v>
+        <x:v>45907.6661318287</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1451,7 +1451,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6661318287</x:v>
+        <x:v>45915.6129614236</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1483,7 +1483,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.6129614236</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1515,7 +1515,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45915.6157258449</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1547,7 +1547,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.6157258449</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1579,7 +1579,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45915.6187638542</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1611,7 +1611,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.6187638542</x:v>
+        <x:v>45915.6143937153</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1643,7 +1643,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.6143937153</x:v>
+        <x:v>45915.6182929051</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1675,7 +1675,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.6182929051</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1707,7 +1707,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1739,7 +1739,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45915.6163797454</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1771,7 +1771,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.6163797454</x:v>
+        <x:v>45922.5770521181</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>

--- a/downloaded_files/GENS005_Lecture-35030.xlsx
+++ b/downloaded_files/GENS005_Lecture-35030.xlsx
@@ -84,7 +84,7 @@
     <x:t>جمانه محمد جلال كامل محمد توفيق</x:t>
   </x:si>
   <x:si>
-    <x:t>Jumana mohamed galal kamel</x:t>
+    <x:t>Jumana Mohammed Jalal Kamel Mohammed Tawfiq</x:t>
   </x:si>
   <x:si>
     <x:t>1240296</x:t>
@@ -857,7 +857,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.250625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="46.380625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.410625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/GENS005_Lecture-35030.xlsx
+++ b/downloaded_files/GENS005_Lecture-35030.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Habiba Mohammed Mahgoub Munsour r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا ايمن وفائي محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Ayman Wafaey</x:t>
   </x:si>
   <x:si>
     <x:t>1240063</x:t>
@@ -548,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -848,7 +857,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1323,7 +1332,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45929.8793162037</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1355,7 +1364,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.6150180208</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.6149380787</x:v>
+        <x:v>45915.6150180208</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6661318287</x:v>
+        <x:v>45915.6149380787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.6129614236</x:v>
+        <x:v>45907.6661318287</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45915.6129614236</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.6157258449</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45915.6157258449</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.6187638542</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.6143937153</x:v>
+        <x:v>45915.6187638542</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.6182929051</x:v>
+        <x:v>45915.6143937153</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45915.6182929051</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.6163797454</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45922.5770521181</x:v>
+        <x:v>45915.6163797454</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6691629977</x:v>
+        <x:v>45922.5770521181</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.6162322106</x:v>
+        <x:v>45907.6691629977</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.6181848032</x:v>
+        <x:v>45915.6162322106</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.6201637384</x:v>
+        <x:v>45915.6181848032</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1931,7 +1940,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45915.6201637384</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1963,7 +1972,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1995,7 +2004,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2027,7 +2036,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2059,7 +2068,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6664172454</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2091,7 +2100,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.6206909375</x:v>
+        <x:v>45907.6664172454</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2123,7 +2132,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45915.6206909375</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2155,7 +2164,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.6151915509</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2187,7 +2196,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.6161251968</x:v>
+        <x:v>45915.6151915509</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2219,7 +2228,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.6170731481</x:v>
+        <x:v>45915.6161251968</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2251,7 +2260,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.6168110764</x:v>
+        <x:v>45915.6170731481</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2283,7 +2292,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45915.6168110764</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2315,7 +2324,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2343,9 +2352,11 @@
       <x:c r="C46" s="2" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="D46" s="2" t="s"/>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6661684375</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2362,6 +2373,36 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s"/>
+      <x:c r="E47" s="3">
+        <x:v>45907.6661684375</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS005_Lecture-35030.xlsx
+++ b/downloaded_files/GENS005_Lecture-35030.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>ALI MOHAMED HABASHY TAWFIQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي محمود احمد ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mahmoud Ahmed Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1240095</x:t>
@@ -557,7 +566,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +866,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1748,7 +1757,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45931.5983688657</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.6163797454</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45922.5770521181</x:v>
+        <x:v>45915.6163797454</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6691629977</x:v>
+        <x:v>45922.5770521181</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.6162322106</x:v>
+        <x:v>45907.6691629977</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.6181848032</x:v>
+        <x:v>45915.6162322106</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.6201637384</x:v>
+        <x:v>45915.6181848032</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1972,7 +1981,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45915.6201637384</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2004,7 +2013,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2036,7 +2045,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2068,7 +2077,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2100,7 +2109,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6664172454</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2132,7 +2141,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.6206909375</x:v>
+        <x:v>45907.6664172454</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2164,7 +2173,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45915.6206909375</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2196,7 +2205,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.6151915509</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2228,7 +2237,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.6161251968</x:v>
+        <x:v>45915.6151915509</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2260,7 +2269,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.6170731481</x:v>
+        <x:v>45915.6161251968</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2292,7 +2301,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.6168110764</x:v>
+        <x:v>45915.6170731481</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2324,7 +2333,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45915.6168110764</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2356,7 +2365,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2384,9 +2393,11 @@
       <x:c r="C47" s="2" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="D47" s="2" t="s"/>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6661684375</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2403,6 +2414,36 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s"/>
+      <x:c r="E48" s="3">
+        <x:v>45907.6661684375</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
